--- a/Clients Accounts .xlsx
+++ b/Clients Accounts .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hussein\Dropbox\Flower Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hussein\Desktop\Flower Systems\flower-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>Client Name</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t xml:space="preserve">المتابعه مع العميل </t>
+  </si>
+  <si>
+    <t>test changes</t>
   </si>
 </sst>
 </file>
@@ -871,6 +874,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,18 +893,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="20.25" customHeight="1"/>
@@ -1805,6 +1808,11 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1">
+      <c r="B18" s="48" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5362,47 +5370,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="64" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="28" t="s">
         <v>36</v>
       </c>
@@ -5411,16 +5419,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="64" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="28" t="s">
         <v>31</v>
       </c>
@@ -5429,14 +5437,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="28" t="s">
         <v>32</v>
       </c>
@@ -5445,201 +5453,183 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="23.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="21">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="28" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="21">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:11" ht="23.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="21">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:11" ht="21">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="64" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="23.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="21">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="64" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="21">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="64" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="23.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="21">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6" ht="21">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="64" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G6:H6"/>
@@ -5656,6 +5646,24 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>
